--- a/biology/Botanique/Oenothera_deflexa/Oenothera_deflexa.xlsx
+++ b/biology/Botanique/Oenothera_deflexa/Oenothera_deflexa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Onagre à petites fleurs
 L'Onagre à petites fleurs (Oenothera deflexa) est une plante herbacée de la famille des Onagracées.
-Le genre Oenothera est originaire d'Amérique. À la suite de mutations et d'hybridations, de nouvelles espèces ont pris naissance en Europe. Le traitement taxonomique en résultant est difficile ; le nombre de taxons reconnus et leur niveau hiérarchique sont différents d'un auteur à l'autre[1].
+Le genre Oenothera est originaire d'Amérique. À la suite de mutations et d'hybridations, de nouvelles espèces ont pris naissance en Europe. Le traitement taxonomique en résultant est difficile ; le nombre de taxons reconnus et leur niveau hiérarchique sont différents d'un auteur à l'autre.
 Environ 500 espèces d'Oenothera ont été décrites, or seule une vingtaine seraient valides. Oenothera deflexa est une espèce en cours de validation.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>catégorie : bisannuelle
 port : érigé
@@ -549,7 +563,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Oenothera lipiensis</t>
         </is>
@@ -579,7 +595,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">« Oenothera » : du grec oinos (vin) et thêr (animaux sauvages) : on disait que la racine d’onagre trempée dans du vin était apte à apprivoiser les animaux sauvages.
 </t>
